--- a/natmiOut/OldD2/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H2">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I2">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J2">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>6.280931540014848</v>
+        <v>6.799188651056666</v>
       </c>
       <c r="R2">
-        <v>6.280931540014848</v>
+        <v>40.79513190634</v>
       </c>
       <c r="S2">
-        <v>0.007228818793594519</v>
+        <v>0.006913578617591887</v>
       </c>
       <c r="T2">
-        <v>0.007228818793594519</v>
+        <v>0.005286573845682786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H3">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I3">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J3">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>24.22223301247972</v>
+        <v>26.42465278780466</v>
       </c>
       <c r="R3">
-        <v>24.22223301247972</v>
+        <v>237.821875090242</v>
       </c>
       <c r="S3">
-        <v>0.02787773312094165</v>
+        <v>0.0268692227656699</v>
       </c>
       <c r="T3">
-        <v>0.02787773312094165</v>
+        <v>0.03081894446792853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H4">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I4">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J4">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>34.76373813037863</v>
+        <v>36.36910329858866</v>
       </c>
       <c r="R4">
-        <v>34.76373813037863</v>
+        <v>327.321929687298</v>
       </c>
       <c r="S4">
-        <v>0.040010110272892</v>
+        <v>0.03698097932126601</v>
       </c>
       <c r="T4">
-        <v>0.040010110272892</v>
+        <v>0.04241710889858319</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H5">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I5">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J5">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>34.64654363514524</v>
+        <v>35.99105879661045</v>
       </c>
       <c r="R5">
-        <v>34.64654363514524</v>
+        <v>323.919529169494</v>
       </c>
       <c r="S5">
-        <v>0.03987522936163675</v>
+        <v>0.03659657457541908</v>
       </c>
       <c r="T5">
-        <v>0.03987522936163675</v>
+        <v>0.04197619742828189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H6">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I6">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J6">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>4.723666151465264</v>
+        <v>5.318911225858668</v>
       </c>
       <c r="R6">
-        <v>4.723666151465264</v>
+        <v>47.870201032728</v>
       </c>
       <c r="S6">
-        <v>0.005436538582348196</v>
+        <v>0.005408396914277569</v>
       </c>
       <c r="T6">
-        <v>0.005436538582348196</v>
+        <v>0.006203420382319374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H7">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I7">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J7">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>11.31957249447601</v>
+        <v>11.66138476976133</v>
       </c>
       <c r="R7">
-        <v>11.31957249447601</v>
+        <v>69.968308618568</v>
       </c>
       <c r="S7">
-        <v>0.01302786662491314</v>
+        <v>0.01185757662176415</v>
       </c>
       <c r="T7">
-        <v>0.01302786662491314</v>
+        <v>0.009067077690024525</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H8">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I8">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J8">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>14.99937765007231</v>
+        <v>18.83887164850833</v>
       </c>
       <c r="R8">
-        <v>14.99937765007231</v>
+        <v>113.03322989105</v>
       </c>
       <c r="S8">
-        <v>0.01726300985105276</v>
+        <v>0.01915581797961202</v>
       </c>
       <c r="T8">
-        <v>0.01726300985105276</v>
+        <v>0.01464778979528701</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H9">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I9">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J9">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>57.84467131469056</v>
+        <v>73.21618324981833</v>
       </c>
       <c r="R9">
-        <v>57.84467131469056</v>
+        <v>658.945649248365</v>
       </c>
       <c r="S9">
-        <v>0.06657430421665517</v>
+        <v>0.07444797680366858</v>
       </c>
       <c r="T9">
-        <v>0.06657430421665517</v>
+        <v>0.08539167965042138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H10">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I10">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J10">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>83.01864674432277</v>
+        <v>100.7697983062983</v>
       </c>
       <c r="R10">
-        <v>83.01864674432277</v>
+        <v>906.928184756685</v>
       </c>
       <c r="S10">
-        <v>0.09554741203288551</v>
+        <v>0.1024651555684074</v>
       </c>
       <c r="T10">
-        <v>0.09554741203288551</v>
+        <v>0.1175273273403029</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H11">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I11">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J11">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>82.73877671528069</v>
+        <v>99.72233040745057</v>
       </c>
       <c r="R11">
-        <v>82.73877671528069</v>
+        <v>897.5009736670551</v>
       </c>
       <c r="S11">
-        <v>0.09522530539745824</v>
+        <v>0.1014000650054382</v>
       </c>
       <c r="T11">
-        <v>0.09522530539745824</v>
+        <v>0.1163056706068822</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H12">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I12">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J12">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>11.28050067849071</v>
+        <v>14.73738868507334</v>
       </c>
       <c r="R12">
-        <v>11.28050067849071</v>
+        <v>132.63649816566</v>
       </c>
       <c r="S12">
-        <v>0.01298289828289334</v>
+        <v>0.01498533141545192</v>
       </c>
       <c r="T12">
-        <v>0.01298289828289334</v>
+        <v>0.0171881449922842</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H13">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I13">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J13">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>27.03206389057623</v>
+        <v>32.31081562757667</v>
       </c>
       <c r="R13">
-        <v>27.03206389057623</v>
+        <v>193.86489376546</v>
       </c>
       <c r="S13">
-        <v>0.03111160983636247</v>
+        <v>0.03285441476977576</v>
       </c>
       <c r="T13">
-        <v>0.03111160983636247</v>
+        <v>0.02512263177208345</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H14">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I14">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J14">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>13.65224653166429</v>
+        <v>14.73884694238834</v>
       </c>
       <c r="R14">
-        <v>13.65224653166429</v>
+        <v>88.43308165433001</v>
       </c>
       <c r="S14">
-        <v>0.015712576339058</v>
+        <v>0.01498681420657735</v>
       </c>
       <c r="T14">
-        <v>0.015712576339058</v>
+        <v>0.0114598971671484</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H15">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I15">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J15">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>52.64949864952818</v>
+        <v>57.28167476051434</v>
       </c>
       <c r="R15">
-        <v>52.64949864952818</v>
+        <v>515.5350728446291</v>
       </c>
       <c r="S15">
-        <v>0.06059510167979618</v>
+        <v>0.05824538516703737</v>
       </c>
       <c r="T15">
-        <v>0.06059510167979618</v>
+        <v>0.06680733963282093</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H16">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I16">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J16">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>75.56253722788156</v>
+        <v>78.83861949712234</v>
       </c>
       <c r="R16">
-        <v>75.56253722788156</v>
+        <v>709.5475754741011</v>
       </c>
       <c r="S16">
-        <v>0.08696606319057323</v>
+        <v>0.08016500526295298</v>
       </c>
       <c r="T16">
-        <v>0.08696606319057323</v>
+        <v>0.0919490997940874</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H17">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I17">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J17">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>75.30780301673994</v>
+        <v>78.01911876872258</v>
       </c>
       <c r="R17">
-        <v>75.30780301673994</v>
+        <v>702.1720689185031</v>
       </c>
       <c r="S17">
-        <v>0.08667288574688664</v>
+        <v>0.07933171720407774</v>
       </c>
       <c r="T17">
-        <v>0.08667288574688664</v>
+        <v>0.09099332006661884</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H18">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I18">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J18">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>10.2673710774006</v>
+        <v>11.52999607473734</v>
       </c>
       <c r="R18">
-        <v>10.2673710774006</v>
+        <v>103.769964672636</v>
       </c>
       <c r="S18">
-        <v>0.01181687215220735</v>
+        <v>0.01172397743528327</v>
       </c>
       <c r="T18">
-        <v>0.01181687215220735</v>
+        <v>0.01344737853686234</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H19">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I19">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J19">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>24.60424752970119</v>
+        <v>25.27880517495267</v>
       </c>
       <c r="R19">
-        <v>24.60424752970119</v>
+        <v>151.672831049716</v>
       </c>
       <c r="S19">
-        <v>0.0283173993876289</v>
+        <v>0.02570409734235911</v>
       </c>
       <c r="T19">
-        <v>0.0283173993876289</v>
+        <v>0.0196550319672696</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H20">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I20">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J20">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>12.13102758359835</v>
+        <v>0.7468226200166667</v>
       </c>
       <c r="R20">
-        <v>12.13102758359835</v>
+        <v>4.4809357201</v>
       </c>
       <c r="S20">
-        <v>0.01396178251955951</v>
+        <v>0.0007593872095428267</v>
       </c>
       <c r="T20">
-        <v>0.01396178251955951</v>
+        <v>0.0005806770679514565</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H21">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I21">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J21">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>46.78296124368256</v>
+        <v>2.902482846236667</v>
       </c>
       <c r="R21">
-        <v>46.78296124368256</v>
+        <v>26.12234561613</v>
       </c>
       <c r="S21">
-        <v>0.05384321534215244</v>
+        <v>0.002951314395512545</v>
       </c>
       <c r="T21">
-        <v>0.05384321534215244</v>
+        <v>0.003385151675429621</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1780,49 +1780,49 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H22">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I22">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J22">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>67.1428853318812</v>
+        <v>3.994780907996666</v>
       </c>
       <c r="R22">
-        <v>67.1428853318812</v>
+        <v>35.95302817197</v>
       </c>
       <c r="S22">
-        <v>0.07727575889835558</v>
+        <v>0.00406198934680212</v>
       </c>
       <c r="T22">
-        <v>0.07727575889835558</v>
+        <v>0.004659093610566175</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1842,49 +1842,49 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H23">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I23">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J23">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>66.91653520447338</v>
+        <v>3.953256514434445</v>
       </c>
       <c r="R23">
-        <v>66.91653520447338</v>
+        <v>35.57930862991</v>
       </c>
       <c r="S23">
-        <v>0.07701524912452444</v>
+        <v>0.004019766344297898</v>
       </c>
       <c r="T23">
-        <v>0.07701524912452444</v>
+        <v>0.004610663911620457</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H24">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I24">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J24">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>9.123316185515934</v>
+        <v>0.5842290045466667</v>
       </c>
       <c r="R24">
-        <v>9.123316185515934</v>
+        <v>5.25806104092</v>
       </c>
       <c r="S24">
-        <v>0.0105001621306649</v>
+        <v>0.0005940581091220505</v>
       </c>
       <c r="T24">
-        <v>0.0105001621306649</v>
+        <v>0.0006813834562846777</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04982333333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.14947</v>
+      </c>
+      <c r="I25">
+        <v>0.01368895116551157</v>
+      </c>
+      <c r="J25">
+        <v>0.01491289718671342</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>25.708558</v>
+      </c>
+      <c r="N25">
+        <v>51.417116</v>
+      </c>
+      <c r="O25">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P25">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q25">
+        <v>1.280886054753333</v>
+      </c>
+      <c r="R25">
+        <v>7.68531632852</v>
+      </c>
+      <c r="S25">
+        <v>0.001302435760234133</v>
+      </c>
+      <c r="T25">
+        <v>0.0009959274648610344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.896157</v>
+      </c>
+      <c r="H26">
+        <v>1.792314</v>
+      </c>
+      <c r="I26">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J26">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.989415</v>
+      </c>
+      <c r="N26">
+        <v>29.97883</v>
+      </c>
+      <c r="O26">
+        <v>0.05547446260572933</v>
+      </c>
+      <c r="P26">
+        <v>0.03893791130463959</v>
+      </c>
+      <c r="Q26">
+        <v>13.432869178155</v>
+      </c>
+      <c r="R26">
+        <v>53.73147671262</v>
+      </c>
+      <c r="S26">
+        <v>0.01365886459240525</v>
+      </c>
+      <c r="T26">
+        <v>0.006962973428569926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.896157</v>
+      </c>
+      <c r="H27">
+        <v>1.792314</v>
+      </c>
+      <c r="I27">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J27">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>58.255493</v>
+      </c>
+      <c r="N27">
+        <v>174.766479</v>
+      </c>
+      <c r="O27">
+        <v>0.2155982850569436</v>
+      </c>
+      <c r="P27">
+        <v>0.2269949046819425</v>
+      </c>
+      <c r="Q27">
+        <v>52.206067840401</v>
+      </c>
+      <c r="R27">
+        <v>313.236407042406</v>
+      </c>
+      <c r="S27">
+        <v>0.05308438592505524</v>
+      </c>
+      <c r="T27">
+        <v>0.04059178925534199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.896157</v>
+      </c>
+      <c r="H28">
+        <v>1.792314</v>
+      </c>
+      <c r="I28">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J28">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>80.178917</v>
+      </c>
+      <c r="N28">
+        <v>240.536751</v>
+      </c>
+      <c r="O28">
+        <v>0.2967348847759819</v>
+      </c>
+      <c r="P28">
+        <v>0.3124204205415681</v>
+      </c>
+      <c r="Q28">
+        <v>71.852897721969</v>
+      </c>
+      <c r="R28">
+        <v>431.117386331814</v>
+      </c>
+      <c r="S28">
+        <v>0.07306175527655344</v>
+      </c>
+      <c r="T28">
+        <v>0.0558677908980284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.896157</v>
+      </c>
+      <c r="H29">
+        <v>1.792314</v>
+      </c>
+      <c r="I29">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J29">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.34548433333335</v>
+      </c>
+      <c r="N29">
+        <v>238.036453</v>
+      </c>
+      <c r="O29">
+        <v>0.2936504262229702</v>
+      </c>
+      <c r="P29">
+        <v>0.3091729161606711</v>
+      </c>
+      <c r="Q29">
+        <v>71.10601120370701</v>
+      </c>
+      <c r="R29">
+        <v>426.636067222242</v>
+      </c>
+      <c r="S29">
+        <v>0.07230230309373729</v>
+      </c>
+      <c r="T29">
+        <v>0.05528706414726774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.851648019579098</v>
-      </c>
-      <c r="H25">
-        <v>0.851648019579098</v>
-      </c>
-      <c r="I25">
-        <v>0.2577582651302158</v>
-      </c>
-      <c r="J25">
-        <v>0.2577582651302158</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="N25">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="O25">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="P25">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="Q25">
-        <v>21.86268792936167</v>
-      </c>
-      <c r="R25">
-        <v>21.86268792936167</v>
-      </c>
-      <c r="S25">
-        <v>0.02516209711495886</v>
-      </c>
-      <c r="T25">
-        <v>0.02516209711495886</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.896157</v>
+      </c>
+      <c r="H30">
+        <v>1.792314</v>
+      </c>
+      <c r="I30">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J30">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.726012</v>
+      </c>
+      <c r="N30">
+        <v>35.17803600000001</v>
+      </c>
+      <c r="O30">
+        <v>0.04339690469630293</v>
+      </c>
+      <c r="P30">
+        <v>0.04569088405516222</v>
+      </c>
+      <c r="Q30">
+        <v>10.508347735884</v>
+      </c>
+      <c r="R30">
+        <v>63.05008641530401</v>
+      </c>
+      <c r="S30">
+        <v>0.01068514082216812</v>
+      </c>
+      <c r="T30">
+        <v>0.008170556687411628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.896157</v>
+      </c>
+      <c r="H31">
+        <v>1.792314</v>
+      </c>
+      <c r="I31">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J31">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>25.708558</v>
+      </c>
+      <c r="N31">
+        <v>51.417116</v>
+      </c>
+      <c r="O31">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P31">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q31">
+        <v>23.038904211606</v>
+      </c>
+      <c r="R31">
+        <v>92.155616846424</v>
+      </c>
+      <c r="S31">
+        <v>0.02342651214793884</v>
+      </c>
+      <c r="T31">
+        <v>0.01194229436177788</v>
       </c>
     </row>
   </sheetData>
